--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H2">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I2">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J2">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>3569.939109647186</v>
+        <v>4201.45734528932</v>
       </c>
       <c r="R2">
-        <v>3569.939109647186</v>
+        <v>16805.82938115728</v>
       </c>
       <c r="S2">
-        <v>0.3985656930213623</v>
+        <v>0.3993458590450084</v>
       </c>
       <c r="T2">
-        <v>0.3985656930213623</v>
+        <v>0.2906052769795024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H3">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I3">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J3">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>19.02048507103576</v>
+        <v>30.80296135037333</v>
       </c>
       <c r="R3">
-        <v>19.02048507103576</v>
+        <v>184.81776810224</v>
       </c>
       <c r="S3">
-        <v>0.002123541209275432</v>
+        <v>0.002927801962665876</v>
       </c>
       <c r="T3">
-        <v>0.002123541209275432</v>
+        <v>0.003195856477651947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H4">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I4">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J4">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>1296.369047665351</v>
+        <v>15.22525916885</v>
       </c>
       <c r="R4">
-        <v>1296.369047665351</v>
+        <v>91.3515550131</v>
       </c>
       <c r="S4">
-        <v>0.1447330646334884</v>
+        <v>0.001447151238792026</v>
       </c>
       <c r="T4">
-        <v>0.1447330646334884</v>
+        <v>0.00157964497585909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.8973048579944</v>
+        <v>278.978638</v>
       </c>
       <c r="H5">
-        <v>53.8973048579944</v>
+        <v>557.957276</v>
       </c>
       <c r="I5">
-        <v>0.1053859870627343</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J5">
-        <v>0.1053859870627343</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>689.7802997925293</v>
+        <v>1386.66759785145</v>
       </c>
       <c r="R5">
-        <v>689.7802997925293</v>
+        <v>8320.005587108697</v>
       </c>
       <c r="S5">
-        <v>0.07701049087261963</v>
+        <v>0.1318018767213576</v>
       </c>
       <c r="T5">
-        <v>0.07701049087261963</v>
+        <v>0.1438689798209908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.8973048579944</v>
+        <v>57.571794</v>
       </c>
       <c r="H6">
-        <v>53.8973048579944</v>
+        <v>172.715382</v>
       </c>
       <c r="I6">
-        <v>0.1053859870627343</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J6">
-        <v>0.1053859870627343</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>3.675120356827321</v>
+        <v>867.0392776911601</v>
       </c>
       <c r="R6">
-        <v>3.675120356827321</v>
+        <v>5202.23566614696</v>
       </c>
       <c r="S6">
-        <v>0.0004103086486818427</v>
+        <v>0.08241153407485007</v>
       </c>
       <c r="T6">
-        <v>0.0004103086486818427</v>
+        <v>0.08995671099507371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.8973048579944</v>
+        <v>57.571794</v>
       </c>
       <c r="H7">
-        <v>53.8973048579944</v>
+        <v>172.715382</v>
       </c>
       <c r="I7">
-        <v>0.1053859870627343</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J7">
-        <v>0.1053859870627343</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>250.4832163450361</v>
+        <v>6.356693681519999</v>
       </c>
       <c r="R7">
-        <v>250.4832163450361</v>
+        <v>57.21024313368</v>
       </c>
       <c r="S7">
-        <v>0.02796518754143279</v>
+        <v>0.0006041997074607392</v>
       </c>
       <c r="T7">
-        <v>0.02796518754143279</v>
+        <v>0.0009892756956445363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.139229399122395</v>
+        <v>57.571794</v>
       </c>
       <c r="H8">
-        <v>0.139229399122395</v>
+        <v>172.715382</v>
       </c>
       <c r="I8">
-        <v>0.0002722367601371558</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J8">
-        <v>0.0002722367601371558</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>1.781864546281378</v>
+        <v>3.14198065755</v>
       </c>
       <c r="R8">
-        <v>1.781864546281378</v>
+        <v>28.27782591795</v>
       </c>
       <c r="S8">
-        <v>0.0001989361879701697</v>
+        <v>0.0002986432710542493</v>
       </c>
       <c r="T8">
-        <v>0.0001989361879701697</v>
+        <v>0.000488978273364937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.139229399122395</v>
+        <v>57.571794</v>
       </c>
       <c r="H9">
-        <v>0.139229399122395</v>
+        <v>172.715382</v>
       </c>
       <c r="I9">
-        <v>0.0002722367601371558</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J9">
-        <v>0.0002722367601371558</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>0.009493699180909105</v>
+        <v>286.161484844508</v>
       </c>
       <c r="R9">
-        <v>0.009493699180909105</v>
+        <v>2575.453363600572</v>
       </c>
       <c r="S9">
-        <v>1.059923622548658E-06</v>
+        <v>0.02719946785106677</v>
       </c>
       <c r="T9">
-        <v>1.059923622548658E-06</v>
+        <v>0.04453456720892859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.139229399122395</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H10">
-        <v>0.139229399122395</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I10">
-        <v>0.0002722367601371558</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J10">
-        <v>0.0002722367601371558</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>0.64705698724361</v>
+        <v>3.029758804826667</v>
       </c>
       <c r="R10">
-        <v>0.64705698724361</v>
+        <v>18.17855282896</v>
       </c>
       <c r="S10">
-        <v>7.224064854443743E-05</v>
+        <v>0.0002879766550454806</v>
       </c>
       <c r="T10">
-        <v>7.224064854443743E-05</v>
+        <v>0.0003143423189735285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.341018578847393</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H11">
-        <v>0.341018578847393</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I11">
-        <v>0.0006667973404839508</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J11">
-        <v>0.0006667973404839508</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>4.364372173561226</v>
+        <v>0.02221265996444444</v>
       </c>
       <c r="R11">
-        <v>4.364372173561226</v>
+        <v>0.19991393968</v>
       </c>
       <c r="S11">
-        <v>0.0004872601370869016</v>
+        <v>2.111299257892357E-06</v>
       </c>
       <c r="T11">
-        <v>0.0004872601370869016</v>
+        <v>3.456898466308799E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.341018578847393</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H12">
-        <v>0.341018578847393</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I12">
-        <v>0.0006667973404839508</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J12">
-        <v>0.0006667973404839508</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>0.02325319094304363</v>
+        <v>0.01097925296666667</v>
       </c>
       <c r="R12">
-        <v>0.02325319094304363</v>
+        <v>0.09881327670000002</v>
       </c>
       <c r="S12">
-        <v>2.596101467985035E-06</v>
+        <v>1.043571039120958E-06</v>
       </c>
       <c r="T12">
-        <v>2.596101467985035E-06</v>
+        <v>1.708672567915735E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.341018578847393</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H13">
-        <v>0.341018578847393</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I13">
-        <v>0.0006667973404839508</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J13">
-        <v>0.0006667973404839508</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>1.584855322323939</v>
+        <v>0.9999550200524446</v>
       </c>
       <c r="R13">
-        <v>1.584855322323939</v>
+        <v>8.999595180472001</v>
       </c>
       <c r="S13">
-        <v>0.0001769411019290641</v>
+        <v>9.504509118411951E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001769411019290641</v>
+        <v>0.0001556203975899442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>166.676336384112</v>
+        <v>0.3818393333333334</v>
       </c>
       <c r="H14">
-        <v>166.676336384112</v>
+        <v>1.145518</v>
       </c>
       <c r="I14">
-        <v>0.3259040554276355</v>
+        <v>0.0007329723451454657</v>
       </c>
       <c r="J14">
-        <v>0.3259040554276355</v>
+        <v>0.0009018047191405575</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>2133.131769432069</v>
+        <v>5.750553817506668</v>
       </c>
       <c r="R14">
-        <v>2133.131769432069</v>
+        <v>34.50332290504</v>
       </c>
       <c r="S14">
-        <v>0.2381534014661671</v>
+        <v>0.0005465864973760941</v>
       </c>
       <c r="T14">
-        <v>0.2381534014661671</v>
+        <v>0.0005966291506430785</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>166.676336384112</v>
+        <v>0.3818393333333334</v>
       </c>
       <c r="H15">
-        <v>166.676336384112</v>
+        <v>1.145518</v>
       </c>
       <c r="I15">
-        <v>0.3259040554276355</v>
+        <v>0.0007329723451454657</v>
       </c>
       <c r="J15">
-        <v>0.3259040554276355</v>
+        <v>0.0009018047191405575</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>11.36523613677113</v>
+        <v>0.04216015359111111</v>
       </c>
       <c r="R15">
-        <v>11.36523613677113</v>
+        <v>0.37944138232</v>
       </c>
       <c r="S15">
-        <v>0.001268871282695713</v>
+        <v>4.007295890362627E-06</v>
       </c>
       <c r="T15">
-        <v>0.001268871282695713</v>
+        <v>6.561274990106775E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>166.676336384112</v>
+        <v>0.3818393333333334</v>
       </c>
       <c r="H16">
-        <v>166.676336384112</v>
+        <v>1.145518</v>
       </c>
       <c r="I16">
-        <v>0.3259040554276355</v>
+        <v>0.0007329723451454657</v>
       </c>
       <c r="J16">
-        <v>0.3259040554276355</v>
+        <v>0.0009018047191405575</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N16">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O16">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P16">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q16">
-        <v>774.6143324995398</v>
+        <v>0.02083888161666667</v>
       </c>
       <c r="R16">
-        <v>774.6143324995398</v>
+        <v>0.18754993455</v>
       </c>
       <c r="S16">
-        <v>0.08648178267877267</v>
+        <v>1.980722496225158E-06</v>
       </c>
       <c r="T16">
-        <v>0.08648178267877267</v>
+        <v>3.24310091702461E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.4297039276709</v>
+        <v>0.3818393333333334</v>
       </c>
       <c r="H17">
-        <v>11.4297039276709</v>
+        <v>1.145518</v>
       </c>
       <c r="I17">
-        <v>0.02234862454488288</v>
+        <v>0.0007329723451454657</v>
       </c>
       <c r="J17">
-        <v>0.02234862454488288</v>
+        <v>0.0009018047191405575</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N17">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O17">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P17">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q17">
-        <v>146.2779005841009</v>
+        <v>1.897938261203111</v>
       </c>
       <c r="R17">
-        <v>146.2779005841009</v>
+        <v>17.081444350828</v>
       </c>
       <c r="S17">
-        <v>0.01633118970081649</v>
+        <v>0.0001803978293827837</v>
       </c>
       <c r="T17">
-        <v>0.01633118970081649</v>
+        <v>0.0002953711925903476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.4297039276709</v>
+        <v>170.2029266666667</v>
       </c>
       <c r="H18">
-        <v>11.4297039276709</v>
+        <v>510.60878</v>
       </c>
       <c r="I18">
-        <v>0.02234862454488288</v>
+        <v>0.3267186678240457</v>
       </c>
       <c r="J18">
-        <v>0.02234862454488288</v>
+        <v>0.4019748336024425</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N18">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O18">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P18">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q18">
-        <v>0.7793624873779189</v>
+        <v>2563.279904009734</v>
       </c>
       <c r="R18">
-        <v>0.7793624873779189</v>
+        <v>15379.6794240584</v>
       </c>
       <c r="S18">
-        <v>8.701189021885922E-05</v>
+        <v>0.2436381310373828</v>
       </c>
       <c r="T18">
-        <v>8.701189021885922E-05</v>
+        <v>0.2659443873621353</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H19">
+        <v>510.60878</v>
+      </c>
+      <c r="I19">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J19">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>18.79267247635556</v>
+      </c>
+      <c r="R19">
+        <v>169.1340522872</v>
+      </c>
+      <c r="S19">
+        <v>0.001786231613712813</v>
+      </c>
+      <c r="T19">
+        <v>0.002924654713363677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H20">
+        <v>510.60878</v>
+      </c>
+      <c r="I20">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J20">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>9.288824722833334</v>
+      </c>
+      <c r="R20">
+        <v>83.59942250550002</v>
+      </c>
+      <c r="S20">
+        <v>0.000882896905431501</v>
+      </c>
+      <c r="T20">
+        <v>0.00144559561932577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H21">
+        <v>510.60878</v>
+      </c>
+      <c r="I21">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J21">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>845.9962567748757</v>
+      </c>
+      <c r="R21">
+        <v>7613.966310973881</v>
+      </c>
+      <c r="S21">
+        <v>0.08041140826751858</v>
+      </c>
+      <c r="T21">
+        <v>0.1316601959076177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.610064</v>
+      </c>
+      <c r="H22">
+        <v>27.220128</v>
+      </c>
+      <c r="I22">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J22">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>204.96946924896</v>
+      </c>
+      <c r="R22">
+        <v>819.87787699584</v>
+      </c>
+      <c r="S22">
+        <v>0.01948221820388105</v>
+      </c>
+      <c r="T22">
+        <v>0.01417727338115671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.610064</v>
+      </c>
+      <c r="H23">
+        <v>27.220128</v>
+      </c>
+      <c r="I23">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J23">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>1.50273253312</v>
+      </c>
+      <c r="R23">
+        <v>9.01639519872</v>
+      </c>
+      <c r="S23">
+        <v>0.000142833775291455</v>
+      </c>
+      <c r="T23">
+        <v>0.000155910902381198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.610064</v>
+      </c>
+      <c r="H24">
+        <v>27.220128</v>
+      </c>
+      <c r="I24">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J24">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>0.7427692428</v>
+      </c>
+      <c r="R24">
+        <v>4.4566154568</v>
+      </c>
+      <c r="S24">
+        <v>7.059974598355717E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.706349623343088E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.4297039276709</v>
-      </c>
-      <c r="H19">
-        <v>11.4297039276709</v>
-      </c>
-      <c r="I19">
-        <v>0.02234862454488288</v>
-      </c>
-      <c r="J19">
-        <v>0.02234862454488288</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q19">
-        <v>53.11859302088735</v>
-      </c>
-      <c r="R19">
-        <v>53.11859302088735</v>
-      </c>
-      <c r="S19">
-        <v>0.005930422953847525</v>
-      </c>
-      <c r="T19">
-        <v>0.005930422953847525</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.610064</v>
+      </c>
+      <c r="H25">
+        <v>27.220128</v>
+      </c>
+      <c r="I25">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J25">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>67.64903179964801</v>
+      </c>
+      <c r="R25">
+        <v>405.894190797888</v>
+      </c>
+      <c r="S25">
+        <v>0.006429997616870534</v>
+      </c>
+      <c r="T25">
+        <v>0.007018695184031952</v>
       </c>
     </row>
   </sheetData>
